--- a/biology/Botanique/Hélianthème_des_Apennins/Hélianthème_des_Apennins.xlsx
+++ b/biology/Botanique/Hélianthème_des_Apennins/Hélianthème_des_Apennins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me_des_Apennins</t>
+          <t>Hélianthème_des_Apennins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helianthemum apenninum
 L'Hélianthème des Apennins (Helianthemum apenninum) est une petite plante vivace appartenant à la famille des Cistacées et au genre Helianthemum, poussant dans les régions méridionales de l'Europe et reconnaissable notamment à ses fleurs à cinq pétales blancs portant un onglet jaune.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me_des_Apennins</t>
+          <t>Hélianthème_des_Apennins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Helianthemum apenninum subsp. apenninum
 Helianthemum apenninum subsp. croceum
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me_des_Apennins</t>
+          <t>Hélianthème_des_Apennins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,17 +561,126 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-On rencontre cette espèce au nord du bassin méditerranéen et à l'ouest de l'Afrique du Nord, aussi en montagne (Alpes du Sud) jusqu'à 1 800 mètres. On peut la trouver parfois en Europe occidentale jusqu'au sud de l'Angleterre, mais elle y est plus rare. La variété à fleurs roses est présente aux Baléares et dans le nord-ouest de l'Italie. Cette plante pousse presque exclusivement sur le calcaire, dans les prés rocailleux et au bord des chemins. Elle est adaptée à supporter la sécheresse grâce à de nombreux poils protecteurs limitant la transpiration.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On rencontre cette espèce au nord du bassin méditerranéen et à l'ouest de l'Afrique du Nord, aussi en montagne (Alpes du Sud) jusqu'à 1 800 mètres. On peut la trouver parfois en Europe occidentale jusqu'au sud de l'Angleterre, mais elle y est plus rare. La variété à fleurs roses est présente aux Baléares et dans le nord-ouest de l'Italie. Cette plante pousse presque exclusivement sur le calcaire, dans les prés rocailleux et au bord des chemins. Elle est adaptée à supporter la sécheresse grâce à de nombreux poils protecteurs limitant la transpiration.
 Floraison : d'avril à juillet
 Pollinisation : entomogame
-Dissémination : épizoochore
-Morphologie générale et végétative
-Sous-arbrisseau lâche, ramifié à la base, d'une hauteur de 15 à 50 cm. Tige étroite et velue, ligneuse à la base. Feuilles à très court pétiole, opposées, entières, très étroites (elliptiques à linéaires), plus ou moins enroulées sur les bords, de couleur vert grisâtre en raison de leur importante pilosité. Présence de petites stipules linéaires persistantes.
-Morphologie florale
-Inflorescence en cyme pouvant comporter jusqu'à dix fleurs. Les fleurs en boutons sont inclinées. Calice à cinq sépales très velus, deux d'entre eux plus petits que les trois autres. Corolle (environ 2 cm) à cinq pétales légèrement froissés, blancs avec un onglet jaune. Très nombreuses étamines jaunes, toutes fertiles.
-Fruit et graines
-Le fruit est une capsule à trois valves.
+Dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hélianthème_des_Apennins</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9lianth%C3%A8me_des_Apennins</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-arbrisseau lâche, ramifié à la base, d'une hauteur de 15 à 50 cm. Tige étroite et velue, ligneuse à la base. Feuilles à très court pétiole, opposées, entières, très étroites (elliptiques à linéaires), plus ou moins enroulées sur les bords, de couleur vert grisâtre en raison de leur importante pilosité. Présence de petites stipules linéaires persistantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hélianthème_des_Apennins</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9lianth%C3%A8me_des_Apennins</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inflorescence en cyme pouvant comporter jusqu'à dix fleurs. Les fleurs en boutons sont inclinées. Calice à cinq sépales très velus, deux d'entre eux plus petits que les trois autres. Corolle (environ 2 cm) à cinq pétales légèrement froissés, blancs avec un onglet jaune. Très nombreuses étamines jaunes, toutes fertiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hélianthème_des_Apennins</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9lianth%C3%A8me_des_Apennins</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule à trois valves.
 </t>
         </is>
       </c>
